--- a/DOC/LKU_MHE_Master.xlsx
+++ b/DOC/LKU_MHE_Master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Master\MMLogistic\MHENAV\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Master\MMLogistic\MHE_NAV\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17F3AB-BADC-4DE6-9BD6-48D09AE98F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B973AF8-F5E2-4116-A3C5-3A162DE50970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="query" localSheetId="0">FleetMe_Task!$A$2:$S$27</definedName>
+    <definedName name="query" localSheetId="0">FleetMe_Task!$A$1:$S$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -697,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:U27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:U26">
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task_ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Request_Date "/>
@@ -923,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -953,144 +953,138 @@
     <col min="22" max="26" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="N1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="T1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>9324</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44971</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="D2" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>9324</v>
+        <v>9325</v>
       </c>
       <c r="B3" s="2">
         <v>44971</v>
@@ -1114,13 +1108,13 @@
         <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>20</v>
@@ -1132,10 +1126,10 @@
         <v>22</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -1149,7 +1143,7 @@
     </row>
     <row r="4" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>9325</v>
+        <v>9326</v>
       </c>
       <c r="B4" s="2">
         <v>44971</v>
@@ -1173,13 +1167,13 @@
         <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>20</v>
@@ -1191,10 +1185,10 @@
         <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -1208,7 +1202,7 @@
     </row>
     <row r="5" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>9326</v>
+        <v>9327</v>
       </c>
       <c r="B5" s="2">
         <v>44971</v>
@@ -1232,13 +1226,13 @@
         <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>20</v>
@@ -1250,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>9327</v>
+        <v>9328</v>
       </c>
       <c r="B6" s="2">
         <v>44971</v>
@@ -1291,13 +1285,13 @@
         <v>17</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>20</v>
@@ -1309,10 +1303,10 @@
         <v>22</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1326,7 +1320,7 @@
     </row>
     <row r="7" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>9328</v>
+        <v>9329</v>
       </c>
       <c r="B7" s="2">
         <v>44971</v>
@@ -1350,13 +1344,13 @@
         <v>17</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>20</v>
@@ -1368,10 +1362,10 @@
         <v>22</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -1385,7 +1379,7 @@
     </row>
     <row r="8" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>9329</v>
+        <v>9330</v>
       </c>
       <c r="B8" s="2">
         <v>44971</v>
@@ -1409,13 +1403,13 @@
         <v>17</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>20</v>
@@ -1427,10 +1421,10 @@
         <v>22</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>9330</v>
+        <v>9331</v>
       </c>
       <c r="B9" s="2">
         <v>44971</v>
@@ -1468,13 +1462,13 @@
         <v>17</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>20</v>
@@ -1486,10 +1480,10 @@
         <v>22</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1503,7 +1497,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>9331</v>
+        <v>9332</v>
       </c>
       <c r="B10" s="2">
         <v>44971</v>
@@ -1527,13 +1521,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>20</v>
@@ -1545,10 +1539,10 @@
         <v>22</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1562,7 +1556,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>9332</v>
+        <v>9333</v>
       </c>
       <c r="B11" s="2">
         <v>44971</v>
@@ -1586,13 +1580,13 @@
         <v>17</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>20</v>
@@ -1604,10 +1598,10 @@
         <v>22</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -1619,9 +1613,9 @@
       </c>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>9333</v>
+        <v>9334</v>
       </c>
       <c r="B12" s="2">
         <v>44971</v>
@@ -1645,28 +1639,28 @@
         <v>17</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1674,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>9334</v>
+        <v>9335</v>
       </c>
       <c r="B13" s="2">
         <v>44971</v>
@@ -1698,19 +1692,19 @@
         <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>64</v>
@@ -1719,13 +1713,13 @@
         <v>65</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1733,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>9335</v>
+        <v>9336</v>
       </c>
       <c r="B14" s="2">
         <v>44971</v>
@@ -1748,43 +1742,43 @@
         <v>14</v>
       </c>
       <c r="D14" s="6">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="6">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -1792,25 +1786,25 @@
         <v>25</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>9336</v>
+        <v>9337</v>
       </c>
       <c r="B15" s="2">
         <v>44971</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="6">
         <v>0.25</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.75</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>15</v>
@@ -1840,36 +1834,34 @@
         <v>82</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="T15" s="5"/>
       <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>9337</v>
+        <v>9338</v>
       </c>
       <c r="B16" s="2">
         <v>44971</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.75</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.25</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>15</v>
@@ -1881,52 +1873,54 @@
         <v>17</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>82</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>9338</v>
+        <v>9339</v>
       </c>
       <c r="B17" s="2">
         <v>44971</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="6">
         <v>0.25</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.75</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>15</v>
@@ -1956,36 +1950,34 @@
         <v>82</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="T17" s="5"/>
       <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>9339</v>
+        <v>9340</v>
       </c>
       <c r="B18" s="2">
         <v>44971</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.75</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.25</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
@@ -1997,52 +1989,54 @@
         <v>17</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T18" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>9340</v>
+        <v>9341</v>
       </c>
       <c r="B19" s="2">
         <v>44971</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="6">
         <v>0.25</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.75</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>15</v>
@@ -2072,81 +2066,81 @@
         <v>82</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="T19" s="5"/>
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>9341</v>
+        <v>9342</v>
       </c>
       <c r="B20" s="2">
         <v>44971</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D20" s="6">
-        <v>0.75</v>
+        <v>0.3125</v>
       </c>
       <c r="E20" s="6">
-        <v>0.25</v>
+        <v>0.6875</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T20" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>9342</v>
+        <v>9343</v>
       </c>
       <c r="B21" s="2">
         <v>44971</v>
@@ -2164,48 +2158,46 @@
         <v>15</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>9343</v>
+        <v>9344</v>
       </c>
       <c r="B22" s="2">
         <v>44971</v>
@@ -2214,10 +2206,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="6">
-        <v>0.3125</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E22" s="6">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -2229,16 +2221,16 @@
         <v>17</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>118</v>
@@ -2247,7 +2239,7 @@
         <v>119</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -2256,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>9344</v>
+        <v>9345</v>
       </c>
       <c r="B23" s="2">
         <v>44971</v>
@@ -2271,55 +2263,57 @@
         <v>14</v>
       </c>
       <c r="D23" s="6">
-        <v>0.27083333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="E23" s="6">
-        <v>0.72916666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>9345</v>
+        <v>9346</v>
       </c>
       <c r="B24" s="2">
         <v>44971</v>
@@ -2343,7 +2337,7 @@
         <v>17</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>63</v>
@@ -2361,10 +2355,10 @@
         <v>66</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -2378,7 +2372,7 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>9346</v>
+        <v>9347</v>
       </c>
       <c r="B25" s="2">
         <v>44971</v>
@@ -2402,28 +2396,28 @@
         <v>17</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -2431,13 +2425,13 @@
         <v>25</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>9347</v>
+        <v>9348</v>
       </c>
       <c r="B26" s="2">
         <v>44971</v>
@@ -2461,28 +2455,28 @@
         <v>17</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -2495,63 +2489,9 @@
       <c r="U26" s="8"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>9348</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44971</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="U27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
@@ -7417,11 +7357,6 @@
       <c r="B1000" s="2"/>
       <c r="D1000" s="9"/>
       <c r="E1000" s="9"/>
-    </row>
-    <row r="1001" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1001" s="2"/>
-      <c r="D1001" s="9"/>
-      <c r="E1001" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/DOC/LKU_MHE_Master.xlsx
+++ b/DOC/LKU_MHE_Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Master\MMLogistic\MHE_NAV\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B973AF8-F5E2-4116-A3C5-3A162DE50970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353EB6B-D98E-473A-B575-53E02347F418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,6 +519,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,6 +593,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +930,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -939,11 +943,11 @@
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.453125" customWidth="1"/>
     <col min="13" max="13" width="18.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="9.08984375" customWidth="1"/>
@@ -1613,7 +1617,7 @@
       </c>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>9334</v>
       </c>
@@ -1672,7 +1676,7 @@
       </c>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>9335</v>
       </c>
@@ -1731,7 +1735,7 @@
       </c>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>9336</v>
       </c>
@@ -1790,7 +1794,7 @@
       </c>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>9337</v>
       </c>
@@ -1847,7 +1851,7 @@
       <c r="T15" s="5"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>9338</v>
       </c>
@@ -1906,7 +1910,7 @@
       </c>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>9339</v>
       </c>
@@ -1963,7 +1967,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>9340</v>
       </c>
@@ -2022,7 +2026,7 @@
       </c>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>9341</v>
       </c>
@@ -2079,7 +2083,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>9342</v>
       </c>
@@ -7369,48 +7373,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735E1BE8-12B0-4379-AB73-7AC2C6995656}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I3" sqref="I3:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I1" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J1" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I2" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I3" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.64583333333333304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I6" s="11">
+        <v>0.687499999999999</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.687499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I7" s="11">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I8" s="11">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.72916666666666596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I9" s="11">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.749999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I10" s="11">
+        <v>0.77083333333333204</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.77083333333333204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" s="11">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.79166666666666596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I12" s="11">
+        <v>0.812499999999999</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.812499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="11">
+        <v>0.83333333333333204</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.83333333333333204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="11">
+        <v>0.85416666666666496</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.85416666666666496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="11">
+        <v>0.874999999999999</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.874999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I16" s="11">
+        <v>0.89583333333333204</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.89583333333333204</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/LKU_MHE_Master.xlsx
+++ b/DOC/LKU_MHE_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Master\MMLogistic\MHE_NAV\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353EB6B-D98E-473A-B575-53E02347F418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC8204B-015D-4DE1-9DFC-EDED2FA3EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/DOC/LKU_MHE_Master.xlsx
+++ b/DOC/LKU_MHE_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Master\MMLogistic\MHE_NAV\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC8204B-015D-4DE1-9DFC-EDED2FA3EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9556D497-96B4-4242-818D-3380DBB3F07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FleetMe_Task" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,6 +594,25 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2256,64 +2275,64 @@
       </c>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+    <row r="23" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
         <v>9345</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="15">
         <v>44971</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="17">
         <v>0.3125</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="17">
         <v>0.6875</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5" t="s">
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U23" s="8"/>
+      <c r="U23" s="19"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -7364,9 +7383,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
